--- a/api/service/EXPORT_TEMPLATE.xlsx
+++ b/api/service/EXPORT_TEMPLATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\P-BANK\GIT\hopeful\api\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D37A11B-0BAF-4F14-AEB9-7187CC04BB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C0B050-CA64-4CB0-9DBB-DE8538127542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8976" xr2:uid="{0B2911A3-578A-4BC6-BAEF-48521B2BC841}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{0B2911A3-578A-4BC6-BAEF-48521B2BC841}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>วันที่ทำรายการ</t>
   </si>
@@ -79,9 +79,6 @@
     <t>ชื่อช่องทาง</t>
   </si>
   <si>
-    <t>คนดูแล</t>
-  </si>
-  <si>
     <t>ยอดรวม</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>ชื่อตัวแทน</t>
   </si>
   <si>
-    <t>ผู้ขาย</t>
-  </si>
-  <si>
     <t>เลขออเดอร์</t>
   </si>
   <si>
@@ -107,6 +101,21 @@
   </si>
   <si>
     <t>สถานะการชำระเงิน</t>
+  </si>
+  <si>
+    <t>วันที่รับชำระเงิน</t>
+  </si>
+  <si>
+    <t>ผู้ขาย nickname</t>
+  </si>
+  <si>
+    <t>ผู้ขาย username</t>
+  </si>
+  <si>
+    <t>คนดูแล username</t>
+  </si>
+  <si>
+    <t>คนดูแล nickname</t>
   </si>
 </sst>
 </file>
@@ -555,7 +564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFB181E-5A94-4E63-BF94-5FECEFD59A42}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -577,22 +586,26 @@
     <col min="12" max="12" width="15.21875" style="8" customWidth="1"/>
     <col min="13" max="13" width="11.44140625" style="10" customWidth="1"/>
     <col min="14" max="16" width="8.77734375" style="12"/>
-    <col min="17" max="18" width="9.6640625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" style="8" customWidth="1"/>
-    <col min="20" max="20" width="12.109375" style="8" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" style="6" customWidth="1"/>
-    <col min="22" max="22" width="11.21875" style="8" customWidth="1"/>
-    <col min="23" max="23" width="12.5546875" style="6" customWidth="1"/>
-    <col min="24" max="24" width="8.77734375" style="6"/>
-    <col min="25" max="25" width="17.88671875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="16.77734375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="12.109375" style="8" customWidth="1"/>
+    <col min="23" max="23" width="10.5546875" style="6" customWidth="1"/>
+    <col min="24" max="24" width="11.21875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="12.5546875" style="6" customWidth="1"/>
+    <col min="26" max="26" width="8.77734375" style="6"/>
+    <col min="27" max="27" width="17.88671875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>0</v>
@@ -634,37 +647,46 @@
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="16" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="14"/>
@@ -683,10 +705,12 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="7"/>
       <c r="V2" s="7"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api/service/EXPORT_TEMPLATE.xlsx
+++ b/api/service/EXPORT_TEMPLATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\P-BANK\GIT\hopeful\api\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C0B050-CA64-4CB0-9DBB-DE8538127542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA95361A-A0A1-47FE-9CAB-4773EAB484F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{0B2911A3-578A-4BC6-BAEF-48521B2BC841}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0B2911A3-578A-4BC6-BAEF-48521B2BC841}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>วันที่ทำรายการ</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>คนดูแล nickname</t>
+  </si>
+  <si>
+    <t>Tracking</t>
+  </si>
+  <si>
+    <t>ขนส่ง</t>
   </si>
 </sst>
 </file>
@@ -564,11 +570,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFB181E-5A94-4E63-BF94-5FECEFD59A42}">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -595,12 +599,12 @@
     <col min="23" max="23" width="10.5546875" style="6" customWidth="1"/>
     <col min="24" max="24" width="11.21875" style="8" customWidth="1"/>
     <col min="25" max="25" width="12.5546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.77734375" style="6"/>
-    <col min="27" max="27" width="17.88671875" style="6" customWidth="1"/>
-    <col min="28" max="28" width="15.6640625" customWidth="1"/>
+    <col min="26" max="28" width="8.77734375" style="6"/>
+    <col min="29" max="29" width="17.88671875" style="6" customWidth="1"/>
+    <col min="30" max="30" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -680,13 +684,19 @@
         <v>21</v>
       </c>
       <c r="AA1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AD1" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="14"/>

--- a/api/service/EXPORT_TEMPLATE.xlsx
+++ b/api/service/EXPORT_TEMPLATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\P-BANK\GIT\hopeful\api\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA95361A-A0A1-47FE-9CAB-4773EAB484F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C0B050-CA64-4CB0-9DBB-DE8538127542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0B2911A3-578A-4BC6-BAEF-48521B2BC841}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{0B2911A3-578A-4BC6-BAEF-48521B2BC841}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>วันที่ทำรายการ</t>
   </si>
@@ -116,12 +116,6 @@
   </si>
   <si>
     <t>คนดูแล nickname</t>
-  </si>
-  <si>
-    <t>Tracking</t>
-  </si>
-  <si>
-    <t>ขนส่ง</t>
   </si>
 </sst>
 </file>
@@ -570,9 +564,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFB181E-5A94-4E63-BF94-5FECEFD59A42}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -599,12 +595,12 @@
     <col min="23" max="23" width="10.5546875" style="6" customWidth="1"/>
     <col min="24" max="24" width="11.21875" style="8" customWidth="1"/>
     <col min="25" max="25" width="12.5546875" style="6" customWidth="1"/>
-    <col min="26" max="28" width="8.77734375" style="6"/>
-    <col min="29" max="29" width="17.88671875" style="6" customWidth="1"/>
-    <col min="30" max="30" width="15.6640625" customWidth="1"/>
+    <col min="26" max="26" width="8.77734375" style="6"/>
+    <col min="27" max="27" width="17.88671875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -684,19 +680,13 @@
         <v>21</v>
       </c>
       <c r="AA1" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AB1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="14"/>
